--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c208_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1328,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1363,28 +1375,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1421,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1501,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1536,28 +1548,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1594,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2050,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2085,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2143,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2472,10 +2484,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2519,28 +2531,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2565,28 +2577,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2703,10 +2715,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2750,28 +2762,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2796,28 +2808,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2992,10 +3004,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3039,28 +3051,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3085,28 +3097,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="J124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4177,10 +4189,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4224,28 +4236,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4270,28 +4282,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4408,10 +4420,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4455,28 +4467,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4501,28 +4513,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4639,10 +4651,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4686,28 +4698,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4732,28 +4744,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5015,10 +5027,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5062,28 +5074,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5108,28 +5120,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5304,10 +5316,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5351,28 +5363,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5397,28 +5409,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5651,10 +5663,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="2" t="s">
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
